--- a/Running projects/Food Court North Walk/329 Invoice for MS PIpe and sprinklers (Shahmeer).xlsx
+++ b/Running projects/Food Court North Walk/329 Invoice for MS PIpe and sprinklers (Shahmeer).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36663A0-7889-4F2A-B304-C5530A632B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD954309-DC36-4D20-9A4A-3223A01D00DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$26:$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>S. #</t>
   </si>
@@ -33,15 +33,9 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Labour Amount</t>
-  </si>
-  <si>
     <t>For PIONEER SERVICES</t>
   </si>
   <si>
-    <t>Labour Rate</t>
-  </si>
-  <si>
     <t>Total Amount Rs</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Quotation #</t>
-  </si>
-  <si>
     <t>NTN #</t>
   </si>
   <si>
@@ -66,15 +57,6 @@
     <t>Invoice</t>
   </si>
   <si>
-    <t>28-12-23</t>
-  </si>
-  <si>
-    <t>Removal and reinstallation of 1" Dia Valve</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Nos.</t>
   </si>
   <si>
@@ -97,6 +79,18 @@
   </si>
   <si>
     <t>Commissioning of the system</t>
+  </si>
+  <si>
+    <t>Invoice #</t>
+  </si>
+  <si>
+    <t>05-12-24</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -379,30 +373,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,13 +577,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>944564</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>63502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190884</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1074,19 +1068,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:P40"/>
+  <dimension ref="A4:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
@@ -1110,42 +1104,42 @@
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="28"/>
       <c r="D13" s="26"/>
       <c r="E13" s="35" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F13" s="33">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="28"/>
       <c r="D14" s="26"/>
       <c r="E14" s="35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1160,17 +1154,17 @@
       <c r="D16" s="29"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+    <row r="17" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1178,17 +1172,17 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1196,25 +1190,25 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-    </row>
-    <row r="24" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1222,7 +1216,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1230,7 +1224,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1244,21 +1238,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="20">
         <v>12</v>
@@ -1271,101 +1265,91 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>2</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" s="20">
+        <v>3</v>
+      </c>
+      <c r="E28" s="22">
+        <v>5500</v>
+      </c>
+      <c r="F28" s="23">
+        <f t="shared" ref="F28:F30" si="1">E28*D28</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>3</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23">
-        <f t="shared" ref="F28:F31" si="1">E28*D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
-        <v>2</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="20">
-        <v>3</v>
-      </c>
       <c r="E29" s="22">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="1"/>
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="20">
         <v>1</v>
       </c>
       <c r="E30" s="22">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="F30" s="23">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
-        <v>4</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="20">
-        <v>1</v>
-      </c>
-      <c r="E31" s="22">
         <v>3000</v>
       </c>
-      <c r="F31" s="23">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="25">
-        <f>SUM(F27:F31)</f>
+    </row>
+    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="25">
+        <f>SUM(F27:F30)</f>
         <v>45500</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
@@ -1376,61 +1360,52 @@
       <c r="F33" s="9"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="13"/>
+    <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="13"/>
+      <c r="K34" s="2"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="H35" s="36"/>
       <c r="K35" s="2"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="H36" s="43"/>
+    </row>
+    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="13"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="F37" s="16"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="13"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K38" s="2"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M40" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A22:F23"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>